--- a/Documents/Timelogs/Timelog - Marcellus.xlsx
+++ b/Documents/Timelogs/Timelog - Marcellus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="3560" yWindow="6340" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Hours</t>
   </si>
@@ -31,13 +31,34 @@
   </si>
   <si>
     <t>Marcellus</t>
+  </si>
+  <si>
+    <t>Investigated an approach to the project with team</t>
+  </si>
+  <si>
+    <t>Setting up a repository</t>
+  </si>
+  <si>
+    <t>Setting up the repository  computers and learning how to use git</t>
+  </si>
+  <si>
+    <t>14/9/14</t>
+  </si>
+  <si>
+    <t>Summarizing Requirements Documents, completing python setup on computer</t>
+  </si>
+  <si>
+    <t>15/9/14</t>
+  </si>
+  <si>
+    <t>push changes to repository and discuss changes and group presentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -75,10 +96,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -143,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -235,21 +252,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -353,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -376,35 +378,50 @@
     <xf numFmtId="14" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,6 +435,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2492375" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,14 +776,14 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="3" max="3" width="67" customWidth="1"/>
     <col min="4" max="6" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -742,154 +808,185 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="16">
+        <v>41799</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="16">
+        <v>41921</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="16">
+        <v>41982</v>
+      </c>
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="12" customHeight="1">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documents/Timelogs/Timelog - Marcellus.xlsx
+++ b/Documents/Timelogs/Timelog - Marcellus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="6340" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Hours</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>push changes to repository and discuss changes and group presentation</t>
+  </si>
+  <si>
+    <t>16/9/14</t>
+  </si>
+  <si>
+    <t>Combined Requirements Documents for the computer and pushed them into repository</t>
   </si>
 </sst>
 </file>
@@ -873,9 +879,15 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
